--- a/run_entrance/test_suite/test_suite_hc02补齐补正受理.xlsx
+++ b/run_entrance/test_suite/test_suite_hc02补齐补正受理.xlsx
@@ -196,7 +196,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -326,10 +326,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +348,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,21 +385,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,7 +408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,53 +430,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,6 +454,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -470,27 +485,18 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -507,13 +513,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,157 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +704,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,24 +733,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +754,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -777,24 +778,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,137 +824,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +1002,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,8 +1365,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,10 +1380,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1391,10 +1400,10 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1406,10 +1415,10 @@
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1421,10 +1430,10 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1438,10 +1447,10 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1452,10 +1461,10 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1469,10 +1478,10 @@
       <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1484,7 +1493,7 @@
       <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1501,10 +1510,10 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1515,10 +1524,10 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1529,7 +1538,7 @@
       <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1543,10 +1552,10 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1557,7 +1566,7 @@
       <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -1574,10 +1583,10 @@
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1589,10 +1598,10 @@
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1603,7 +1612,7 @@
       <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -1617,7 +1626,7 @@
       <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -1631,7 +1640,7 @@
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -1645,7 +1654,7 @@
       <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -1659,7 +1668,7 @@
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -1673,7 +1682,7 @@
       <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -1687,7 +1696,7 @@
       <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -1701,7 +1710,7 @@
       <c r="C23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -1710,20 +1719,20 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="8"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="28" ht="14.25" spans="6:6">
       <c r="F28" s="15"/>
@@ -1753,12 +1762,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1874,7 +1886,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1923,7 +1935,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="9"/>
